--- a/biology/Histoire de la zoologie et de la botanique/George_Sprague_Myers/George_Sprague_Myers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Sprague_Myers/George_Sprague_Myers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Sprague Myers est un ichtyologiste et un herpétologiste américain, né le 2 février 1905 à Jersey City (New Jersey) et mort le 4 novembre 1985 à Scotts Valley, près de Santa Cruz (Californie).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Très tôt passionné par les poissons d’aquarium, il fait paraître son premier article à 15 ans. Il visite régulièrement au Muséum américain d'histoire naturelle de New York. Son intérêt est soutenu par divers scientifiques de cette institution comme John Treadwell Nichols (1883-1958), Charles Marcus Breder, Jr. (1897-1983), Karl Patterson Schmidt (1890-1957), John Tee-Van (1897-1967) et surtout Gladwyn Kingsley Noble (1894-1940) qui l’invite à participer à des sorties sur le terrain afin de récolter des grenouilles.
 Passant beaucoup de temps comme bénévole dans le muséum (1922-1924), il néglige ses études et n’est jamais diplômé. Carl H. Eigenmann (1863-1927) découvre sa situation et l’invite à rejoindre l’université de l'Indiana pour y étudier et devenir son assistant. Il l’initie notamment à la taxinomie des poissons d’eau douce d’Amérique du Sud. Il est ensuite invité par le propre maître d’Eigenmann, le grand ichtyologiste David Starr Jordan (1851-1931) à l’université Stanford (1926). Il y reçoit son Bachelor of Arts en 1930 et son Master of Arts l’année suivante. Il obtient un titre de docteur avec une thèse sur les poissons Cyprinodontiformes d’Afrique (1933) : The Classification of the African Cyprinodont Fishes, with a Discussion of the Geographical Distribution of the Cyprinodontidae of the World. Il fréquente alors de nombreux zoologistes comme John Otterbein Snyder (1867-1943), Edwin Chapin Starks (1867-1932), Harold Heath (1868-1951), Gordon Floyd Ferris (1893-1958) et Albert William Christian Theodore Herre (1868-1962).
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles : 202 p.  (ISBN 0-916984-19-2)
 (en) Smithsonian Institution Archives</t>
